--- a/biology/Médecine/Charles-Polydore_Forget/Charles-Polydore_Forget.xlsx
+++ b/biology/Médecine/Charles-Polydore_Forget/Charles-Polydore_Forget.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles-Polydore Forget, né à Saintes le 15 juillet 1800 et mort à Strasbourg le 19 mars 1861, est un chirurgien de marine français et professeur de pathologie et clinique médicale à la Faculté de médecine de Strasbourg entre 1835 et 1861.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il perd sa mère à sa naissance puis, à l'âge de dix ans, son père alors préfet de collège à l'école Sainte Barbe de Paris. Dès dix-neuf ans, il intègre l'École de médecine navale de Rochefort. Nommé élevé chirurgien quinze mois après (avril 1820), il embarque sur la frégate L'Antigone aux Antilles de 1820 à 1822. Il est nommé chirurgien de 3e classe en mars 1822. Il passe alors sur la corvette Le Tarn puis sur La Brestoise et sur La Magicienne (1823) lors de l' expédition d'Espagne, où il assiste au blocus et au bombardement de Cadix.
 Chirurgien de 2e classe en mai 1824, il est sur L'Alsacienne cette année-là puis embarque sur La Gironde à Rochefort et enfin sur Le Volcan dans une campagne en Méditerranée (1826-1827). Il prend part au blocus maritime d'Alger.
 En avril 1828, il démissionne pour passer sa thèse en médecine intitulée Précis des influences de la navigation sur le physique et le moral de l’homme (29 juillet 1829) et obtient en 1832 l’agrégation à la faculté de Paris où il est le disciple de Broussais, avec une thèse en latin: (la)An hepatis inflammationibus certa signa ? Anpost mortem laesiones propriae ?.
-Directeur de publication de la Revue Transactions médicales (1830-1833), il est nommé en 1835 professeur à la faculté de Strasbourg en succession de Jean Lobstein. Il se consacre alors à l'écriture d'une œuvre considérable touchant à la fois à la médecine et à la philosophie. Il est membre de la Société anatomique de Paris et de l'Académie de médecine (1836-1861)[1].
+Directeur de publication de la Revue Transactions médicales (1830-1833), il est nommé en 1835 professeur à la faculté de Strasbourg en succession de Jean Lobstein. Il se consacre alors à l'écriture d'une œuvre considérable touchant à la fois à la médecine et à la philosophie. Il est membre de la Société anatomique de Paris et de l'Académie de médecine (1836-1861).
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On lui doit de nombreux articles publiés, entre autres, dans L'Union médicale, ainsi que :
 Précis des influences de la navigation sur le physique et le moral de l'homme, 1828, Texte intégral.
